--- a/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171030-1103.xlsx
+++ b/04.沟通汇报/2.汇报机制/2.周报/QDCH_WEEKLY_20171030-1103.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,19 +222,6 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>bu'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李秉润、鲁军、陈力杰</t>
-    <rPh sb="0" eb="1">
-      <t>li'bing'run</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>lu'jun</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>chen'li'jie</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,51 +470,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.系统架构的设计、网络拓扑设计
-2.11月份计划调整</t>
-    <rPh sb="2" eb="3">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jia'gou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>de</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wang'luo</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>tuo'pu</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>she'ji</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>yue'fen</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ji'hua</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>tiao'zheng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>满莉</t>
     <rPh sb="0" eb="1">
       <t>man'li</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李阳</t>
-    <rPh sb="0" eb="1">
-      <t>li'yang</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,6 +634,168 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>huan'ying'jie'mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大宗类页面基本已经开发完成（导航页集成、预警平台、公示平台等尚未开发）</t>
+    <rPh sb="0" eb="1">
+      <t>da'zong'lei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ye'mian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yi'jing</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kai'fa</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wan'cheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dao'hang'ye</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ji'cheng</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yu'jing</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ping'tai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shng'wei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系统架构的设计、网络拓扑设计
+2.11月份计划调整
+3.实时数据的获取，考虑到业务系统的数据源是oracle，初步方案是采用CDC的方式</t>
+    <rPh sb="2" eb="3">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia'gou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>de</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wang'luo</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>tuo'pu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yue'fen</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ji'hua</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi'shi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>de</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>huo'qu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>kao'lv'dao</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shu'ju'yuan</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>chu'b</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>cai'yong</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>de</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>fang'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秉润、鲁军、陈力杰、陆星</t>
+    <rPh sb="0" eb="1">
+      <t>li'bing'run</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lu'jun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chen'li'jie</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lu'xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李阳、陆星</t>
+    <rPh sb="0" eb="1">
+      <t>li'yang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lu'xing</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1095,7 +1202,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -1154,10 +1261,10 @@
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
@@ -1177,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>9</v>
@@ -1206,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1217,19 +1324,19 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -1240,19 +1347,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1263,19 +1370,19 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1285,17 +1392,20 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="71" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,19 +1416,19 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
